--- a/biology/Virologie/Tembusu_virus/Tembusu_virus.xlsx
+++ b/biology/Virologie/Tembusu_virus/Tembusu_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tembusu virus (TMUV) est une espèce de flavivirus aviaire isolé chez un moustique Culex tritaeniorhynchus en 1955 à Kuala Lumpur[1],[2]. Elle se ramifie phylogénétiquement avec les espèces Ntaya virus, Bagaza virus et Israel turkey meningoencephalomyelitis virus[3]. Il porte le même nom que l'arbre Tembusu (en).
-Un risque pour la santé humaine ou animale n'a jamais été formellement établi[3]. Cependant, des anticorps dirigés contre le virus Tembusu ont été trouvés chez l'humain[4],[5]. Par ailleurs, à la fin des années 1990, un nouveau virus étroitement apparenté (92 %), le virus de Sitiawan[6],[7] causant l'encéphalite du poussin et un retard de croissance, montre un potentiel de virus émergent. En 2010, une autre souche toujours apparentée à l'espèce Tembusu virus, le virus de Baiyangdian, a été identifiée dans des élevages de canards décimés dans l'Est de la Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tembusu virus (TMUV) est une espèce de flavivirus aviaire isolé chez un moustique Culex tritaeniorhynchus en 1955 à Kuala Lumpur,. Elle se ramifie phylogénétiquement avec les espèces Ntaya virus, Bagaza virus et Israel turkey meningoencephalomyelitis virus. Il porte le même nom que l'arbre Tembusu (en).
+Un risque pour la santé humaine ou animale n'a jamais été formellement établi. Cependant, des anticorps dirigés contre le virus Tembusu ont été trouvés chez l'humain,. Par ailleurs, à la fin des années 1990, un nouveau virus étroitement apparenté (92 %), le virus de Sitiawan, causant l'encéphalite du poussin et un retard de croissance, montre un potentiel de virus émergent. En 2010, une autre souche toujours apparentée à l'espèce Tembusu virus, le virus de Baiyangdian, a été identifiée dans des élevages de canards décimés dans l'Est de la Chine.
 </t>
         </is>
       </c>
